--- a/data/excel outputs/p-value analysis/p_values_SVM_vs_MLP.xlsx
+++ b/data/excel outputs/p-value analysis/p_values_SVM_vs_MLP.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.56552399824276e-06</v>
+        <v>2.164704628492806e-05</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1690093544193071</v>
+        <v>0.06580286203444298</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.630515989881498</v>
+        <v>0.2424619616615709</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.504407563261779e-05</v>
+        <v>0.0002602986844957249</v>
       </c>
     </row>
     <row r="6">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002579962203802428</v>
+        <v>0.01581962011715084</v>
       </c>
     </row>
     <row r="7">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001229511551037355</v>
+        <v>0.004926520029758992</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007262264050574395</v>
+        <v>0.01016257212069078</v>
       </c>
     </row>
     <row r="9">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1136498886755462</v>
+        <v>0.02209517577612174</v>
       </c>
     </row>
     <row r="10">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5787948606935149</v>
+        <v>0.260657851436761</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3228815091096537</v>
+        <v>0.1060570810295968</v>
       </c>
     </row>
     <row r="12">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002191208133803154</v>
+        <v>2.08677374712324e-05</v>
       </c>
     </row>
     <row r="13">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6425048147350945</v>
+        <v>0.04956414489233108</v>
       </c>
     </row>
     <row r="14">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9026602339687163</v>
+        <v>0.3666070181509299</v>
       </c>
     </row>
     <row r="15">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2658306047223857</v>
+        <v>0.06892945839706392</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,146 +607,6 @@
         <is>
           <t>p_value</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0003684258605542941</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5210696368663201</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9086958090741676</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.001704519887924967</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.002445908994310934</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3.342162976071325e-10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.957851500661587e-05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7.460325657726105e-07</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.02594468327457493</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0001187551330584871</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.077300824583498e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.47205854772984e-07</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6.906004415899731e-11</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.02128075431025469</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,146 +633,6 @@
         <is>
           <t>p_value</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1160832925741951</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.06120568948575925</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.343747609895256</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.4837514113236043</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5855732730591681</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3.256413503371835e-05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.329876800921125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.78835411318741e-05</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.01359012504958807</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0209917286647498</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0001281267941864949</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0003950644650194238</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.228477371763294e-07</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.630927745361588e-05</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,146 +661,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.177110550380236e-37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
